--- a/biology/Histoire de la zoologie et de la botanique/Paul_Lemoine_(géologue)/Paul_Lemoine_(géologue).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Paul_Lemoine_(géologue)/Paul_Lemoine_(géologue).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Paul_Lemoine_(g%C3%A9ologue)</t>
+          <t>Paul_Lemoine_(géologue)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Lemoine, né le 28 mars 1878 à Paris et mort le 14 mars 1940 dans la même ville, est un géologue français, professeur au Muséum national d'histoire naturelle, directeur de cet établissement de 1932 à 1936, et fondateur du Zoo de Vincennes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Paul_Lemoine_(g%C3%A9ologue)</t>
+          <t>Paul_Lemoine_(géologue)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Paul Lemoine est le fils du chimiste Georges Lemoine et de son épouse née Claire Eugénie Guesnet (1852-1928).
 Paul Lemoine a épousé le 1er août 1907 à Paris Marie Dujardin-Beaumetz (1887-1986), nièce du peintre et homme politique Étienne Dujardin-Beaumetz.
-Une première expédition géologique à Madagascar en 1902 et 1903 lui permet de recueillir les matériaux qui lui servent à rédiger sa thèse de doctorat, soutenue en 1906. Il participe aussi en 1904-1905 à l'expédition au Maroc et dans le Haut-Atlas de René de Segonzac. D'abord chargé de cours à la Faculté des sciences puis à l'École des mines, il est nommé en 1920 à la chaire de géologie du Muséum[1].
+Une première expédition géologique à Madagascar en 1902 et 1903 lui permet de recueillir les matériaux qui lui servent à rédiger sa thèse de doctorat, soutenue en 1906. Il participe aussi en 1904-1905 à l'expédition au Maroc et dans le Haut-Atlas de René de Segonzac. D'abord chargé de cours à la Faculté des sciences puis à l'École des mines, il est nommé en 1920 à la chaire de géologie du Muséum.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Paul_Lemoine_(g%C3%A9ologue)</t>
+          <t>Paul_Lemoine_(géologue)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Volcans et tremblements de terre, Paris, Hachette, coll. « La Bibliothèque des merveilles », 1928 (ouvrage de vulgarisation).</t>
         </is>
